--- a/biology/Botanique/Prinsepia/Prinsepia.xlsx
+++ b/biology/Botanique/Prinsepia/Prinsepia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Prinsepia est un genre[1] de plantes à fleurs de la famille des Rosaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Prinsepia est un genre de plantes à fleurs de la famille des Rosaceae.
 Ce sont des arbustes dont les branches portent régulièrement des épines axillaires. Ils donnent des fruits semblables aux cerises (des drupes) et sont originaires d'Asie (Inde, Chine, Bangladesh, Taïwan).
 Étymologie : le terme de prinsep vient de James Prinsep (1799–1840) un antiquaire, architecte et secrétaire de la Asiatic Society à Calcutta, membre de la famille anglo-indienne des Prinsep.
 Synonymes :
@@ -515,7 +527,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Prinsepia scandens Hayata
 Prinsepia sinensis (Oliv.) Oliv. ex Bean
